--- a/data/dataThongtinHDDCTien_case3.xlsx
+++ b/data/dataThongtinHDDCTien_case3.xlsx
@@ -73,7 +73,7 @@
     <t>Serial</t>
   </si>
   <si>
-    <t>1C22TGT</t>
+    <t>1C22TBB</t>
   </si>
 </sst>
 </file>
@@ -395,7 +395,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/data/dataThongtinHDDCTien_case3.xlsx
+++ b/data/dataThongtinHDDCTien_case3.xlsx
@@ -9,14 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15930" windowHeight="3780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" refMode="R1C1"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,6 +29,9 @@
     <t>Stt</t>
   </si>
   <si>
+    <t>Serial</t>
+  </si>
+  <si>
     <t>Makhachhang</t>
   </si>
   <si>
@@ -55,6 +56,9 @@
     <t>ThueGTGT</t>
   </si>
   <si>
+    <t>1C22TBB</t>
+  </si>
+  <si>
     <t>Nguyễn Văn A</t>
   </si>
   <si>
@@ -68,12 +72,6 @@
   </si>
   <si>
     <t>5%</t>
-  </si>
-  <si>
-    <t>Serial</t>
-  </si>
-  <si>
-    <t>1C22TBB</t>
   </si>
 </sst>
 </file>
@@ -392,64 +390,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -457,66 +435,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>